--- a/LmbdaTestProject/src/test/resources/TestData/RegistrationData.xlsx
+++ b/LmbdaTestProject/src/test/resources/TestData/RegistrationData.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ValidRegistrationData" sheetId="1" r:id="rId1"/>
+    <sheet name="BlankUserName" sheetId="2" r:id="rId2"/>
+    <sheet name="BlankBusinessEmail" sheetId="3" r:id="rId3"/>
+    <sheet name="RegisteredEmail" sheetId="4" r:id="rId4"/>
+    <sheet name="PasswordNegative" sheetId="5" r:id="rId5"/>
+    <sheet name="BlankPhoneNumber" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>Vrushali</t>
   </si>
@@ -28,6 +31,15 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Vrushali2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>vrushal</t>
   </si>
 </sst>
 </file>
@@ -375,7 +387,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -389,7 +401,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -410,7 +422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -441,12 +455,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>